--- a/lab2/docs/lab2.xlsx
+++ b/lab2/docs/lab2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dmitry\Documents\supercomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4FBF49-1B52-4977-BF0F-8188A26E3FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7F967-DB45-48C2-845C-015661830B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311F0098-3206-467B-B896-6A36B473369B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{311F0098-3206-467B-B896-6A36B473369B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
@@ -52,6 +53,18 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Количество тредов</t>
+  </si>
+  <si>
+    <t>Двойное распараллеливание</t>
+  </si>
+  <si>
+    <t>Одинарное распараллеливание</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -76,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,13 +97,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -678,7 +782,737 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость времени исполнения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> программы от входных данных</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4 треда, 2 парал.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1413.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74AC-43BF-8E8F-3EABB5EC73D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 треда, 1 парал.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>374.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2182.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74AC-43BF-8E8F-3EABB5EC73D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 тредов, 2 парал</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>862.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1352.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74AC-43BF-8E8F-3EABB5EC73D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 тредов, 1 парал.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$I$16:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1049.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1630.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-74AC-43BF-8E8F-3EABB5EC73D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="400328496"/>
+        <c:axId val="400328016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="400328496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N*K</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400328016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400328016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400328496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1234,6 +2068,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1255,6 +2605,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE839C71-A290-3020-B5D3-0137915C43B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B111D6E6-E398-A8E3-E46F-0480860166E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFE2EDD-74C4-491B-8615-04C8F03D6D0F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,4 +3253,426 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3835495E-8C2B-41DE-87F1-C90BE3CAFA28}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="6">
+        <f>A4*B4</f>
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="6">
+        <f>F4*G4</f>
+        <v>10000000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C8" si="0">A5*B5</f>
+        <v>50000000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>169.8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H8" si="1">F5*G5</f>
+        <v>50000000</v>
+      </c>
+      <c r="I5" s="10">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>372</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="I6" s="10">
+        <v>374.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>200000000</v>
+      </c>
+      <c r="D7" s="10">
+        <v>958.4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>200000000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B8" s="9">
+        <v>15000</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>300000000</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1413.12</v>
+      </c>
+      <c r="F8" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>300000000</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2182.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:C20" si="2">A16*B16</f>
+        <v>10000000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>33.6</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="6">
+        <f>F16*G16</f>
+        <v>10000000</v>
+      </c>
+      <c r="I16" s="10">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="2"/>
+        <v>50000000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:H20" si="3">F17*G17</f>
+        <v>50000000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>341.8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="3"/>
+        <v>100000000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B19" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="2"/>
+        <v>200000000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>862.2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="3"/>
+        <v>200000000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1049.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B20" s="9">
+        <v>15000</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="2"/>
+        <v>300000000</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1352.8</v>
+      </c>
+      <c r="F20" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G20" s="9">
+        <v>15000</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="3"/>
+        <v>300000000</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1630.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>